--- a/类信贷测算/类信贷测算-v1.xlsx
+++ b/类信贷测算/类信贷测算-v1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -13,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -694,7 +694,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
@@ -946,11 +946,11 @@
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1262,16 +1262,16 @@
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="20" max="20" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" customWidth="1"/>
+    <col min="20" max="20" width="15.265625" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>2787.16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>985.19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>150.49</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>2787.16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>4130.84</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1544,12 +1544,12 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
       <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1563,10 +1563,10 @@
         <v>99.77</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1581,10 +1581,10 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
       <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1592,12 +1592,12 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B18">
         <f>SUM(B23:B26)</f>
         <v>219.76</v>
@@ -1606,7 +1606,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1664,13 +1664,13 @@
         <v>4129.9699999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="T20">
         <f>T18/T19</f>
         <v>0.31419231837484651</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>2</v>
@@ -1737,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>444.6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="17" t="s">
         <v>10</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>3331.29</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="17" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>328.59</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="17" t="s">
         <v>31</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>537.85</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>4668.07</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>5866.7599999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>43.06</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>1449.6943999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="U40" s="21"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>2</v>
@@ -2240,7 +2240,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="U42" s="22"/>
     </row>
-    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="17" t="s">
         <v>54</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>83.904269999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
         <v>71</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>9.1248500000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="17" t="s">
         <v>10</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>1439.5695499999999</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="17" t="s">
         <v>11</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>1533.5986699999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>67.708160000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -2516,12 +2516,12 @@
         <v>1465.8905099999999</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="T50" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A56" s="23" t="s">
         <v>102</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>63.418611708699999</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58" s="24" t="s">
         <v>103</v>
       </c>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="P58" s="24"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59" s="24"/>
       <c r="B59" s="24">
         <v>2016</v>
@@ -2586,7 +2586,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60" s="24" t="s">
         <v>104</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61" s="24" t="s">
         <v>105</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>49.15</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="E62" s="27" t="s">
         <v>109</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>14.102498947400001</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="E63" s="27" t="s">
         <v>94</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0.16611276129999999</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="E64" s="27" t="s">
         <v>95</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>63.418611708699999</v>
       </c>
     </row>
-    <row r="65" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H65" s="24" t="s">
         <v>95</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0.94874999999999998</v>
       </c>
     </row>
-    <row r="66" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:16" x14ac:dyDescent="0.4">
       <c r="O66" s="24" t="s">
         <v>95</v>
       </c>
@@ -2737,26 +2737,26 @@
   <dimension ref="A3:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+      <selection activeCell="O45" sqref="O45:P57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.86328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.46484375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.86328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8" s="38"/>
       <c r="F8" t="s">
         <v>162</v>
@@ -2832,13 +2832,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B9" s="38"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B10" s="38"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E11" t="s">
         <v>167</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>121</v>
       </c>
@@ -2902,8 +2902,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" s="48" t="s">
         <v>152</v>
       </c>
       <c r="B13" t="s">
@@ -2975,8 +2975,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14" s="48"/>
       <c r="B14" t="s">
         <v>124</v>
       </c>
@@ -3046,8 +3046,8 @@
         <v>4.9632021287903179E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="48"/>
       <c r="B15" t="s">
         <v>125</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>9.936965145337501</v>
       </c>
       <c r="Q15" s="42">
-        <f t="shared" ref="Q14:Q37" si="15">O47</f>
+        <f t="shared" ref="Q15:Q37" si="15">O47</f>
         <v>4347.78</v>
       </c>
       <c r="R15" s="42"/>
@@ -3117,8 +3117,8 @@
         <v>1.1427631050027257E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16" s="48"/>
       <c r="B16" t="s">
         <v>126</v>
       </c>
@@ -3188,8 +3188,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17" s="48"/>
       <c r="B17" t="s">
         <v>127</v>
       </c>
@@ -3259,8 +3259,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18" s="48" t="s">
         <v>150</v>
       </c>
       <c r="B18" t="s">
@@ -3332,8 +3332,8 @@
         <v>1.751738609720685E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19" s="48"/>
       <c r="B19" t="s">
         <v>129</v>
       </c>
@@ -3403,8 +3403,8 @@
         <v>4.387303900820172E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20" s="48"/>
       <c r="B20" t="s">
         <v>130</v>
       </c>
@@ -3474,8 +3474,8 @@
         <v>2.8759888136745376E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21" s="48"/>
       <c r="B21" t="s">
         <v>131</v>
       </c>
@@ -3545,8 +3545,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22" s="48"/>
       <c r="B22" t="s">
         <v>132</v>
       </c>
@@ -3616,8 +3616,8 @@
         <v>6.8966153918308293E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23" s="48"/>
       <c r="B23" t="s">
         <v>133</v>
       </c>
@@ -3687,8 +3687,8 @@
         <v>4.1119512234980019E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24" s="48"/>
       <c r="B24" t="s">
         <v>134</v>
       </c>
@@ -3758,8 +3758,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A25" s="48"/>
       <c r="B25" t="s">
         <v>135</v>
       </c>
@@ -3829,8 +3829,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A26" s="48" t="s">
         <v>151</v>
       </c>
       <c r="B26" t="s">
@@ -3902,8 +3902,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A27" s="48"/>
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -3973,8 +3973,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A28" s="48"/>
       <c r="B28" t="s">
         <v>138</v>
       </c>
@@ -4044,8 +4044,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A29" s="48"/>
       <c r="B29" t="s">
         <v>96</v>
       </c>
@@ -4115,8 +4115,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A30" s="48"/>
       <c r="B30" t="s">
         <v>88</v>
       </c>
@@ -4186,8 +4186,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A31" s="48"/>
       <c r="B31" t="s">
         <v>89</v>
       </c>
@@ -4257,8 +4257,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A32" s="48"/>
       <c r="B32" t="s">
         <v>139</v>
       </c>
@@ -4328,8 +4328,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A33" s="48" t="s">
         <v>153</v>
       </c>
       <c r="B33" t="s">
@@ -4401,8 +4401,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A34" s="48"/>
       <c r="B34" t="s">
         <v>110</v>
       </c>
@@ -4472,8 +4472,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A35" s="48"/>
       <c r="B35" t="s">
         <v>102</v>
       </c>
@@ -4540,8 +4540,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A36" s="48"/>
       <c r="B36" t="s">
         <v>115</v>
       </c>
@@ -4611,8 +4611,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A37" s="48"/>
       <c r="B37" t="s">
         <v>116</v>
       </c>
@@ -4682,12 +4682,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="46" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <v>42916</v>
       </c>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="S43" s="40"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>155</v>
       </c>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="U44" s="42"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
         <f>[1]!to_tradecode(B45)</f>
         <v>601398</v>
@@ -4801,7 +4801,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
         <f>[1]!to_tradecode(B46)</f>
         <v>601939</v>
@@ -4864,7 +4864,7 @@
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
         <f>[1]!to_tradecode(B47)</f>
         <v>601288</v>
@@ -4927,7 +4927,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
         <f>[1]!to_tradecode(B48)</f>
         <v>601988</v>
@@ -4987,7 +4987,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
         <f>[1]!to_tradecode(B49)</f>
         <v>601328</v>
@@ -5047,7 +5047,7 @@
         <v>26.55</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" t="str">
         <f>[1]!to_tradecode(B50)</f>
         <v>600036</v>
@@ -5110,7 +5110,7 @@
         <v>43.06</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
         <f>[1]!to_tradecode(B51)</f>
         <v>601998</v>
@@ -5173,7 +5173,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52" t="str">
         <f>[1]!to_tradecode(B52)</f>
         <v>600000</v>
@@ -5236,7 +5236,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" t="str">
         <f>[1]!to_tradecode(B53)</f>
         <v>600016</v>
@@ -5296,7 +5296,7 @@
         <v>20.32</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
         <f>[1]!to_tradecode(B54)</f>
         <v>601166</v>
@@ -5359,7 +5359,7 @@
         <v>159.46</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55" t="str">
         <f>[1]!to_tradecode(B55)</f>
         <v>601818</v>
@@ -5422,7 +5422,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56" t="str">
         <f>[1]!to_tradecode(B56)</f>
         <v>600015</v>
@@ -5482,7 +5482,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57" t="str">
         <f>[1]!to_tradecode(B57)</f>
         <v>000001</v>
@@ -5542,7 +5542,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A58" t="str">
         <f>[1]!to_tradecode(B58)</f>
         <v>601169</v>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A59" t="str">
         <f>[1]!to_tradecode(B59)</f>
         <v>601009</v>
@@ -5655,7 +5655,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A60" t="str">
         <f>[1]!to_tradecode(B60)</f>
         <v>002142</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A61" t="str">
         <f>[1]!to_tradecode(B61)</f>
         <v>601229</v>
@@ -5769,7 +5769,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A62" t="str">
         <f>[1]!to_tradecode(B62)</f>
         <v>601997</v>
@@ -5826,7 +5826,7 @@
         <v>1.0000000091178534</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A63" t="str">
         <f>[1]!to_tradecode(B63)</f>
         <v>600926</v>
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A64" t="str">
         <f>[1]!to_tradecode(B64)</f>
         <v>600919</v>
@@ -5940,7 +5940,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" t="str">
         <f>[1]!to_tradecode(B65)</f>
         <v>600908</v>
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" t="str">
         <f>[1]!to_tradecode(B66)</f>
         <v>601128</v>
@@ -6054,7 +6054,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" t="str">
         <f>[1]!to_tradecode(B67)</f>
         <v>002807</v>
@@ -6111,7 +6111,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" t="str">
         <f>[1]!to_tradecode(B68)</f>
         <v>603323</v>
@@ -6168,7 +6168,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" t="str">
         <f>[1]!to_tradecode(B69)</f>
         <v>002839</v>
